--- a/Datasets+Emoji/Done/Datasets_Caknun.xlsx
+++ b/Datasets+Emoji/Done/Datasets_Caknun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\Datasets+Emoji\Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E39E0-58AD-4D1B-AA1F-9805BBE0EEE2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F2DEB-6599-4B7C-B4E1-F9D6FBEC81A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Datasets+Emoji/Done/Datasets_Caknun.xlsx
+++ b/Datasets+Emoji/Done/Datasets_Caknun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\Datasets+Emoji\Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F2DEB-6599-4B7C-B4E1-F9D6FBEC81A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0BBA2-53D1-466C-8104-687B4CF5DE87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
